--- a/mappings/BBRKodelister.xlsx
+++ b/mappings/BBRKodelister.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agilent-my.sharepoint.com/personal/michaela_mlcek_agilent_com/Documents/Documents/BBR-demolished-buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agilent-my.sharepoint.com/personal/michaela_mlcek_agilent_com/Documents/Documents/BBR-demolished-buildings/mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_7519C3ED2433481F952C4C6CD5AA2051787D64E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382511E1-07DA-40EC-8CA9-76E1A1633DEC}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_7519C3ED2433481F952C4C6CD5AA2051787D64E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25AAC94-D084-4FBF-A331-0C6070B2F62D}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4029,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I43" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="G787" workbookViewId="0">
+      <selection activeCell="I829" sqref="I829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
